--- a/Fuenzalida_PreInterviewQuestion.xlsx
+++ b/Fuenzalida_PreInterviewQuestion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elizabeth.fuenzalida\GitProjects\BC_SCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04C339DD-5ACA-4444-A3DD-706594208766}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{90DA1E6F-1B90-42FD-96A6-864430CFFC4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27390" windowHeight="10830" activeTab="1" xr2:uid="{BE0404E7-FC2A-46AA-9A93-093D41C9C3DC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
   <si>
     <t>Testing Devices</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>Linux/Ubuntu</t>
-  </si>
-  <si>
-    <t>Check user can sucessfuly load expected web page</t>
   </si>
   <si>
     <t xml:space="preserve">https://forms.bellevuecollege.edu/test-form/test.php </t>
@@ -339,9 +336,6 @@
     <t>Check user cannot submit if all required fields are not filled in</t>
   </si>
   <si>
-    <t>Check expected errors are thrown if information inserted into field is not valid</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -393,16 +387,118 @@
     <t>Errors were thorwn inconsistent with format.</t>
   </si>
   <si>
-    <t>Name: Elizabeth Fuenzalida                                  Student ID: ABC123!                                       E-mail: e.f@bellevuecollege.edu  Subject: Test Question                       Description:                                            Service area: Enrollment service</t>
-  </si>
-  <si>
     <t>Name:                                                Student ID:                                             E-mail: e.f@bellevuecollege.edu  Subject: Test Question                       Description:  tetsing stuff                                          Service area: Enrollment services</t>
   </si>
   <si>
     <t xml:space="preserve">Check expected errors are thrown if required fields are not filled in </t>
   </si>
   <si>
-    <t>When name and ID field was left empty, an error was thrown indicating the form contained multiple errors, but only under the Name textbox did it indicate this is where the error occurred. No specific error for missing ID or indicator was shown.</t>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>1. Go to website                 2. Check headers align as expected</t>
+  </si>
+  <si>
+    <t>The Title header is indented to the right causing it to become misaligned with body form.</t>
+  </si>
+  <si>
+    <t>Title header is misaligned with body form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website Required: </t>
+  </si>
+  <si>
+    <t>Check webpage textboxes appear as expected</t>
+  </si>
+  <si>
+    <t>Check webpage headers align as expected</t>
+  </si>
+  <si>
+    <t>Check user can sucessfuly load expected webpage</t>
+  </si>
+  <si>
+    <t>A textbox can be adjusted and extended outside body form</t>
+  </si>
+  <si>
+    <t>The description textbox can be adjusted from the lower right hand corner and extended outside the body form.</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Check required fields have indicators that they are required</t>
+  </si>
+  <si>
+    <t>1. Go to website                2. Check that textboxes behave as expected</t>
+  </si>
+  <si>
+    <t>1. Go to website                2. Check that required fields have indicator that they are required</t>
+  </si>
+  <si>
+    <t>Textboxes should all be contained to inside the body form, aligned, and non-adjustable.</t>
+  </si>
+  <si>
+    <t>All headers should align as expected.</t>
+  </si>
+  <si>
+    <t>A required field does not have an indicator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service area is a required field but does not have an indicator.</t>
+  </si>
+  <si>
+    <t>When name and ID field was left empty, only under the Name textbox did was it indicated this is where an error  had occurred. No specific error for missing ID or indicator was shown.</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Check that user can select options from the drop down menus as expected</t>
+  </si>
+  <si>
+    <t>1. Go to website                   2. Select a service area from drop down menu    3. Select issue category from drop down menu</t>
+  </si>
+  <si>
+    <t>Service area: Enrollment      Services Issue category: Other</t>
+  </si>
+  <si>
+    <t>User should be able to select drop down and select an option</t>
+  </si>
+  <si>
+    <t>User can select option from drop boxes</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Check that user can only select an issue category relevant to Service area</t>
+  </si>
+  <si>
+    <t>1. Go to website                   2. Select a service area from drop down menu    3. Select an issue category from drop down menu</t>
+  </si>
+  <si>
+    <t>Service area: Enrollment      Services Issue category: Residency</t>
+  </si>
+  <si>
+    <t>User should only be able to select an issue category that is related to the respective service area</t>
+  </si>
+  <si>
+    <t>User can only select an issue category that is related to the respective service area</t>
+  </si>
+  <si>
+    <t>All required fields should have an asterisk (*) next to them to indicate that they are required.</t>
+  </si>
+  <si>
+    <t>Name: Elizabeth Fuenzalida                                  Student ID: ABC123!                                       E-mail: e.f@bellevuecollege.edu  Subject: Test Question                       Description: testing some stuff                                            Service area: Enrollment service</t>
+  </si>
+  <si>
+    <t>Check expected errors are thrown if information inserted into field is invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Submission should be prevented if alpha or special characters are input into Student ID field. Submission was not prevented and no errors were thrown when Student ID field contained alpha and special characters.  </t>
   </si>
 </sst>
 </file>
@@ -410,9 +506,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +605,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -688,7 +792,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -697,23 +801,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -721,24 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -748,15 +822,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -764,9 +829,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -777,67 +839,115 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1163,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC848B8-C46E-4285-8DCD-DC83F8B82D05}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1182,1010 +1292,1009 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:21" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>43362</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:21" ht="111.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:21" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:21" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+      <c r="A21" s="13">
         <v>1</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+      <c r="A22" s="13">
         <v>2</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+      <c r="A23" s="13">
         <v>3</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+      <c r="A24" s="13">
         <v>4</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+      <c r="A25" s="13">
         <v>5</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="24">
         <v>10.130000000000001</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="43">
+      <c r="A30" s="16"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="24">
         <v>10.119999999999999</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="24">
         <v>10</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="43">
+      <c r="A33" s="16"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="24">
         <v>8.1</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="24">
         <v>15.04</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="43">
+      <c r="A36" s="16"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="24">
         <v>14.04</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="24">
         <v>11.4</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="43">
+      <c r="A39" s="16"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="24">
         <v>11</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="27">
         <v>8</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="48">
+      <c r="A42" s="16"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="27">
         <v>7</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="24">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="43">
+      <c r="A45" s="18"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="24">
         <v>9</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="44" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="48">
+      <c r="C47" s="27">
         <v>6</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="48">
+      <c r="A48" s="19"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="27">
         <v>5</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="36"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="51"/>
     </row>
     <row r="50" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9"/>
     </row>
     <row r="52" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="26">
         <v>69</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="43">
+      <c r="A53" s="17"/>
+      <c r="B53" s="24">
         <v>68</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="43">
+      <c r="B55" s="24">
         <v>62</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="43">
+      <c r="A56" s="17"/>
+      <c r="B56" s="24">
         <v>61</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="24">
         <v>17</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="13"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="43">
+      <c r="A59" s="17"/>
+      <c r="B59" s="24">
         <v>16</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="13"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="13"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="43">
+      <c r="B61" s="24">
         <v>11</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="13"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="43">
+      <c r="A62" s="8"/>
+      <c r="B62" s="24">
         <v>10</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="13"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="13"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="9"/>
     </row>
     <row r="64" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="24">
         <v>11</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="13"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="9"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="43">
+      <c r="A65" s="18"/>
+      <c r="B65" s="24">
         <v>10</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="13"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="9"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="38"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="40"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A16:J16"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A50:J50"/>
@@ -2196,10 +2305,11 @@
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{1CAD15F7-B546-4ABC-AF90-AC66A19744F5}"/>
@@ -2212,16 +2322,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F170F2-E64F-4B53-A0FB-0B4D3252187C}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.140625" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -2234,26 +2344,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2288,130 +2402,264 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="E4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="C8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="H8" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="54" t="s">
+      <c r="G9" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="54" t="s">
+      <c r="G11" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="54" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2420,7 +2668,12 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{F0181F7D-9969-4179-B49E-CB193983BECE}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{6C79E109-5684-4ED1-8F85-17687F243171}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{311F1010-F0AB-45E4-ADD3-FA7EED7FAE5E}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{B44EC86E-15F5-42F3-A5E2-72998A3298B6}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{F748FED6-E4C8-437D-9948-D2F639805D8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>